--- a/biology/Médecine/Pasteurdon/Pasteurdon.xlsx
+++ b/biology/Médecine/Pasteurdon/Pasteurdon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pasteurdon est une opération annuelle de sensibilisation et d’appel aux dons menée par l’Institut Pasteur, centre de recherche biomédicale de renommée internationale fondé par Louis Pasteur en 1888. 
 Initié en 2006, ce rendez-vous fait appel à la générosité du public pour soutenir les activités de recherche de l’Institut Pasteur. Cette opération permet de financer et de faire connaître les programmes de l’Institut Pasteur en matière de : 
@@ -515,7 +527,9 @@
           <t>Le don au sein de l’Institut Pasteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondation privée à but non lucratif, reconnue d’utilité publique, l’Institut Pasteur s’appuie sur la collecte de fonds pour mener à bien ses missions au service de la santé publique.
 Les dons et legs représentent environ 25 % du budget de l’Institut Pasteur. 
@@ -551,36 +565,257 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Présentation
-Le Pasteurdon est un événement solidaire organisé chaque année au mois d’octobre par l’Institut Pasteur.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pasteurdon est un événement solidaire organisé chaque année au mois d’octobre par l’Institut Pasteur.
 Lancé en 2006, il permet de faire appel à la générosité publique pour participer au financement des travaux de recherche de l’Institut : autisme, maladie d’Alzheimer, cancers de l’estomac, maladies émergentes, génétique humaine, diarrhées chez les enfants dans les pays en développement... 
 L’édition 2022, parrainée par la comédienne Alexandra Lamy, se déroulera du 5 au 9 octobre.
-Les parrains / Marraines
-Chaque année, des personnalités médiatiques issues d’univers différents parrainent l’opération en prêtant leur image et leur voix au Pasteurdon : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les parrains / Marraines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, des personnalités médiatiques issues d’univers différents parrainent l’opération en prêtant leur image et leur voix au Pasteurdon : 
 Depuis 2011 : Alexandra Lamy, actrice
 2010 : Sandrine Kiberlain, actrice et chanteuse
 2009 : Étienne Daho, auteur-compositeur-interprète
 2008 : Hugues Aufray, Étienne Daho, Michel Delpech, Laura Flessel-Colovic, Nikola Karabatic, Marc Levy, Nicolas Lopez, Paul-Henri Mathieu et Sylvie Vartan
 2007 : Hugues Aufray, Jane Birkin, Louis Chedid, Cyrielle Clair, Étienne Daho, Sandrine Kiberlain, Marc Levy et Sylvie Vartan
 Parmi les soutiens du Pasteurdon, on trouve également Michel Boujenah, François-Xavier Demaison, Isabelle Nanty, Marc Raquil, Anne Roumanoff et Amanda Sthers.
-Faire un don au Pasteurdon
-Le Pasteurdon s’appuie sur plusieurs supports de don  : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faire un don au Pasteurdon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon s’appuie sur plusieurs supports de don  : 
 Le 3620 (service gratuit + prix d'un appel)
 Le site internet pasteurdon.fr
 La voie postale  : Chèque à l'ordre de Pasteurdon, à envoyer au 25 rue du Docteur Roux, 75015 Paris
-Il est également possible de créer sa propre page web de collecte pour le Pasteurdon sur www.alvarum.com/pasteur
-Les campagnes de publicité
-Chaque édition du Pasteurdon est soutenue par une campagne de publicité nationale faisant appel à la générosité du public. 
+Il est également possible de créer sa propre page web de collecte pour le Pasteurdon sur www.alvarum.com/pasteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les campagnes de publicité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque édition du Pasteurdon est soutenue par une campagne de publicité nationale faisant appel à la générosité du public. 
 À l’origine uniquement radiodiffusée, l’opération bénéficie depuis 2009 du soutien commun et inédit de 19 chaînes de la TNT, qui diffusent des programmes courts sur les recherches de l’Institut Pasteur.
-Les partenaires
-Les partenaires médias
-19 chaines de la TNT soutiennent le Pasteurdon et s’engagent à mieux faire connaître les activités de recherche de l’Institut Pasteur.
-Du 9 au 13 octobre 2019, Radio France s'engage aux côtés de l'Institut Pasteur dans le cadre de la 13e édition du Pasteurdon[1].
-En 2020, pour la 14e édition, le Pasteurdon reçoit le soutien des chaînes historiques (TF1, France 2, France 3, France 5, M6)[2].
-Les entreprises partenaires
-En 2013, le Pasteurdon bénéficie du soutien d’entreprises, associations et collectivités françaises  : La Fondation Le Roch-Les Mousquetaires, Les cinémas Gaumont Pathé, AXA atout cœur, Kwixo, Tarifold, RATP, Air France, BNP Paribas, Dettol, OCP, TV Grande chaînes.
-Les résultats du Pasteurdon
-En 2012, le Pasteurdon a reçu 1 044 958 € de promesses de dons
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les partenaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les partenaires médias</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 chaines de la TNT soutiennent le Pasteurdon et s’engagent à mieux faire connaître les activités de recherche de l’Institut Pasteur.
+Du 9 au 13 octobre 2019, Radio France s'engage aux côtés de l'Institut Pasteur dans le cadre de la 13e édition du Pasteurdon.
+En 2020, pour la 14e édition, le Pasteurdon reçoit le soutien des chaînes historiques (TF1, France 2, France 3, France 5, M6).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les partenaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les entreprises partenaires</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, le Pasteurdon bénéficie du soutien d’entreprises, associations et collectivités françaises  : La Fondation Le Roch-Les Mousquetaires, Les cinémas Gaumont Pathé, AXA atout cœur, Kwixo, Tarifold, RATP, Air France, BNP Paribas, Dettol, OCP, TV Grande chaînes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le Pasteurdon</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les résultats du Pasteurdon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 2012, le Pasteurdon a reçu 1 044 958 € de promesses de dons
 En 2011, le Pasteurdon a reçu 1 154 012 € de promesses de dons
 2010 : 1 068 820 euros de promesses de dons
 2009 : 1 061 278 euros de dons
@@ -589,31 +824,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pasteurdon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Brulhatour, « Radio France mobilisée pour le Pasteurdon », sur www.lalettre.pro, 11 octobre 2019 (consulté le 12 octobre 2019).
@@ -622,31 +859,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pasteurdon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pasteurdon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurdon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel du Pasteurdon
  Portail de la société   Portail de la médecine                    </t>
